--- a/src/test/resources/xlsx/dynamic_column.xlsx
+++ b/src/test/resources/xlsx/dynamic_column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA_Projects\spring-learning\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA_Projects\easyexcel-extend\src\test\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8E753E-C003-4FD7-9A43-08F7004AC092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387F238-3CB9-416D-BEB2-13E17227A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34170" yWindow="1875" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32145" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dy_1_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy_2_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy_1_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy_2_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dy1a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +100,22 @@
   </si>
   <si>
     <t>dc4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_打开_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_打开_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_闭合_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_闭合_b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +474,17 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -487,34 +494,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -525,34 +532,34 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xlsx/dynamic_column.xlsx
+++ b/src/test/resources/xlsx/dynamic_column.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA_Projects\easyexcel-extend\src\test\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387F238-3CB9-416D-BEB2-13E17227A38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC44D4E3-A097-41F2-98D5-F723538A7529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,22 +84,6 @@
   </si>
   <si>
     <t>dc2b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy_3_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy3a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc_4_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc4b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,14 +124,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -176,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,9 +162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,7 +459,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,16 +467,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>8</v>
@@ -517,14 +490,8 @@
       <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -554,12 +521,6 @@
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
